--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1502027.088077699</v>
+        <v>1499650.461130333</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283195</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>16.54389930660773</v>
+        <v>352.0460097138525</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -829,10 +829,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -868,13 +868,13 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>193.5534233013599</v>
+        <v>161.2242549209197</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,16 +902,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>301.6369270003926</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>336.9007534026724</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1072,7 +1072,7 @@
         <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>77.48933659629749</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>67.22331801800635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1133,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>143.1891408370007</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1148,7 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>35.76884849180142</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247047</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1300,7 +1300,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>14.85572574591758</v>
       </c>
       <c r="V10" t="n">
-        <v>196.4017961483597</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1379,13 +1379,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417073</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695535</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128548</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>101.696957004698</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012174</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>152.8697920431046</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695349</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,16 +1822,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>176.5196562849262</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>37.17792077063459</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>123.9815576456779</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,7 +2014,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756243</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>91.89996056624841</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2482,13 +2482,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>41.02686156550273</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>80.08971311158757</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428347</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>115.9451354278049</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890358</v>
+        <v>79.36266849663059</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>10.63412424768257</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3427,13 +3427,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3442,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3487,10 +3487,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>12.96996784159862</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3664,16 +3664,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>123.7971820797028</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>66.25628701154714</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>168.4805514670954</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,10 +4195,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X46" t="n">
-        <v>168.4805514670954</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.276945881932</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="C2" t="n">
-        <v>141.276945881932</v>
+        <v>1176.100419978354</v>
       </c>
       <c r="D2" t="n">
-        <v>141.276945881932</v>
+        <v>817.8347213716031</v>
       </c>
       <c r="E2" t="n">
-        <v>141.276945881932</v>
+        <v>817.8347213716031</v>
       </c>
       <c r="F2" t="n">
-        <v>134.3314451327286</v>
+        <v>406.8488165819955</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4358,22 +4358,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="X2" t="n">
-        <v>918.0161179218655</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="Y2" t="n">
-        <v>527.8767859460538</v>
+        <v>1545.062936918765</v>
       </c>
     </row>
     <row r="3">
@@ -4389,13 +4389,13 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
@@ -4407,28 +4407,28 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>482.9033490193026</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>777.6069060507743</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M3" t="n">
-        <v>1140.868925009994</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1528.15405360694</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>1860.224488783102</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>918.7469765594642</v>
+        <v>919.6966947956497</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>750.7605118677428</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>600.6438724554071</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G4" t="n">
         <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="U4" t="n">
-        <v>918.7469765594642</v>
+        <v>1174.381183001537</v>
       </c>
       <c r="V4" t="n">
-        <v>918.7469765594642</v>
+        <v>919.6966947956497</v>
       </c>
       <c r="W4" t="n">
-        <v>918.7469765594642</v>
+        <v>919.6966947956497</v>
       </c>
       <c r="X4" t="n">
-        <v>918.7469765594642</v>
+        <v>919.6966947956497</v>
       </c>
       <c r="Y4" t="n">
-        <v>918.7469765594642</v>
+        <v>919.6966947956497</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1101.768613746537</v>
+        <v>1890.972649740754</v>
       </c>
       <c r="C5" t="n">
-        <v>732.8060968061254</v>
+        <v>1522.010132800342</v>
       </c>
       <c r="D5" t="n">
-        <v>374.5403981993749</v>
+        <v>1163.744434193592</v>
       </c>
       <c r="E5" t="n">
-        <v>69.85663355251364</v>
+        <v>777.9561815953475</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>366.9702768057399</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
         <v>51.24678656800311</v>
@@ -4565,25 +4565,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362826</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816093</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872929</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
         <v>2542.25058172385</v>
@@ -4604,13 +4604,13 @@
         <v>2231.276441056585</v>
       </c>
       <c r="W5" t="n">
-        <v>1878.507785786471</v>
+        <v>1890.972649740754</v>
       </c>
       <c r="X5" t="n">
-        <v>1878.507785786471</v>
+        <v>1890.972649740754</v>
       </c>
       <c r="Y5" t="n">
-        <v>1488.368453810659</v>
+        <v>1890.972649740754</v>
       </c>
     </row>
     <row r="6">
@@ -4644,28 +4644,28 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735141</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>1092.885047004312</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1456.147065963532</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1843.432194560477</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>2175.502629736639</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1087.683159487371</v>
+        <v>762.0703369900128</v>
       </c>
       <c r="C7" t="n">
-        <v>918.7469765594642</v>
+        <v>593.1341540621059</v>
       </c>
       <c r="D7" t="n">
-        <v>768.6303371471284</v>
+        <v>593.1341540621059</v>
       </c>
       <c r="E7" t="n">
-        <v>620.7172435647353</v>
+        <v>593.1341540621059</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>446.2442065641956</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>278.2577418724742</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>129.5188437359804</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
@@ -4750,25 +4750,25 @@
         <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.23396574994</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U7" t="n">
-        <v>1337.23396574994</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="V7" t="n">
-        <v>1337.23396574994</v>
+        <v>990.0598878880302</v>
       </c>
       <c r="W7" t="n">
-        <v>1337.23396574994</v>
+        <v>990.0598878880302</v>
       </c>
       <c r="X7" t="n">
-        <v>1337.23396574994</v>
+        <v>762.0703369900128</v>
       </c>
       <c r="Y7" t="n">
-        <v>1269.331624317611</v>
+        <v>762.0703369900128</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>934.6665353554984</v>
+        <v>1412.134398099142</v>
       </c>
       <c r="C8" t="n">
-        <v>934.6665353554984</v>
+        <v>1043.17188115873</v>
       </c>
       <c r="D8" t="n">
-        <v>576.4008367487479</v>
+        <v>684.9061825519796</v>
       </c>
       <c r="E8" t="n">
-        <v>576.4008367487479</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F8" t="n">
-        <v>165.4149319591403</v>
+        <v>129.2847819674217</v>
       </c>
       <c r="G8" t="n">
-        <v>153.7505857238333</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362819</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>2084.871465656512</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X8" t="n">
-        <v>1711.405707395432</v>
+        <v>2188.873570139075</v>
       </c>
       <c r="Y8" t="n">
-        <v>1321.26637541962</v>
+        <v>1798.734238163263</v>
       </c>
     </row>
     <row r="9">
@@ -4875,10 +4875,10 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>518.2127024906389</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C10" t="n">
-        <v>349.2765195627319</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>199.1598801503962</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800311</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020476</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1322.228182168206</v>
       </c>
       <c r="V10" t="n">
-        <v>1438.060467399387</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="W10" t="n">
-        <v>1148.643297362426</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="X10" t="n">
-        <v>920.6537464644088</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y10" t="n">
-        <v>699.8611673208786</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551871</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611459</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004709</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406465</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5033,58 +5033,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192582</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852252</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.83315239859</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492574</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.25260147478</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612122999</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852884</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591805</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615993</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,40 +5103,40 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637302</v>
+        <v>352.5519571452603</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>949.9304447718124</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444888</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684174</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2366.028450684174</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>363.7369613277364</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057737</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832661</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832661</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2090.842153176859</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5267,43 +5267,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797183</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797183</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703794</v>
+        <v>776.1751066403286</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969311</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.868625753638</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257311</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133953</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310022</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797183</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W16" t="n">
-        <v>1505.299220625425</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727408</v>
+        <v>1170.979132919729</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="17">
@@ -5507,37 +5507,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703794</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969311</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400712</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="20">
@@ -5741,28 +5741,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,19 +5829,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5969,40 +5969,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,25 +6066,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2338.476105524075</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,61 +6212,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.853600740073</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121661</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121661</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121661</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121661</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270461</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038357</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797759</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648821</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.28419561186</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138429</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703128</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,34 +6449,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694708</v>
@@ -6485,25 +6485,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>868.6673633290468</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C31" t="n">
-        <v>699.7311804011399</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D31" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>2043.19961644368</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V31" t="n">
-        <v>1788.515128237793</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W31" t="n">
-        <v>1499.097958200832</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X31" t="n">
-        <v>1271.108407302816</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y31" t="n">
-        <v>1050.315828159286</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="32">
@@ -6692,37 +6692,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>789.7592298206043</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>620.8230468926974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>470.7064074803617</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2436.221543936137</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2253.366709591041</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1964.291482935239</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1709.606994729352</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1420.189824692392</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1192.200273794374</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>971.4076946508441</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6929,16 +6929,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332388</v>
@@ -6950,16 +6950,16 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429802</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2336.956424518383</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2117.354959541324</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1828.279732885522</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642674</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,19 +7245,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
         <v>1373.553594266881</v>
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>696.7084350851671</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C40" t="n">
-        <v>527.7722521572603</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D40" t="n">
-        <v>527.7722521572603</v>
+        <v>597.2570777219835</v>
       </c>
       <c r="E40" t="n">
-        <v>527.7722521572603</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>302.45403664168</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
@@ -7360,22 +7360,22 @@
         <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W40" t="n">
-        <v>1327.139029956954</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X40" t="n">
-        <v>1099.149479058937</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y40" t="n">
-        <v>878.3568999154069</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
@@ -7427,34 +7427,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7561,52 +7561,52 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
         <v>974.1018203925706</v>
@@ -7637,16 +7637,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075809</v>
@@ -7655,13 +7655,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7783,16 +7783,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7804,46 +7804,46 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
         <v>974.1018203925706</v>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>186.4490126143851</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,16 +8070,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>265.0304328515151</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
-        <v>240.4465442417437</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>4.092726157978177e-12</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>44.73700564187118</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856558</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,16 +23464,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>99.26785128072336</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>181.4067325814602</v>
       </c>
     </row>
     <row r="17">
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>24.63391537253442</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>110.0033420516639</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>143.6212754172146</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24221,7 +24221,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24370,13 +24370,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24412,10 +24412,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.9994244361419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>68.52575990662478</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194039</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,13 +24886,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>170.2393389614392</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>146.3469868924066</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>55.74112246243909</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,13 +25315,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,10 +25375,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>212.7396875474385</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25442,7 +25442,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>21.62386594322848</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>99.2678512807217</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>57.2291039219418</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26083,10 +26083,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X46" t="n">
-        <v>57.2291039219418</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>938121.6316787519</v>
+        <v>938121.6316787518</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>915359.2522314047</v>
+        <v>915359.2522314049</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>915359.2522314048</v>
+        <v>915359.252231405</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>915359.2522314048</v>
+        <v>915359.2522314049</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>915359.2522314049</v>
+        <v>915359.2522314048</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>915359.252231405</v>
+        <v>915359.2522314049</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>915359.2522314049</v>
+        <v>915359.2522314048</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>915359.2522314049</v>
+        <v>915359.252231405</v>
       </c>
     </row>
     <row r="15">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="C2" t="n">
         <v>513151.1061651771</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062534</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="F2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="G2" t="n">
         <v>504466.6248062537</v>
       </c>
       <c r="H2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="I2" t="n">
+        <v>504466.6248062535</v>
+      </c>
+      <c r="J2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="K2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="L2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="M2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="N2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="O2" t="n">
         <v>504466.6248062537</v>
-      </c>
-      <c r="I2" t="n">
-        <v>504466.6248062536</v>
-      </c>
-      <c r="J2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="K2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="L2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="M2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="N2" t="n">
-        <v>504466.6248062539</v>
-      </c>
-      <c r="O2" t="n">
-        <v>504466.6248062539</v>
       </c>
       <c r="P2" t="n">
         <v>504466.6248062537</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,16 +26372,16 @@
         <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245449</v>
+        <v>507485.4416245462</v>
       </c>
       <c r="F3" t="n">
-        <v>4.897497092315462e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.246394276677165e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.482032298052218e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289265</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.094354047381785e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>134318.0002618638</v>
+      </c>
+      <c r="C4" t="n">
         <v>134318.0002618637</v>
-      </c>
-      <c r="C4" t="n">
-        <v>134318.0002618638</v>
       </c>
       <c r="D4" t="n">
         <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731975</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731975</v>
       </c>
       <c r="G4" t="n">
         <v>8117.312426731974</v>
@@ -26436,28 +26436,28 @@
         <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731939</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731985</v>
       </c>
       <c r="N4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="O4" t="n">
+        <v>8117.312426732028</v>
+      </c>
+      <c r="P4" t="n">
         <v>8117.312426731974</v>
-      </c>
-      <c r="P4" t="n">
-        <v>8117.312426731975</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.529823907</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-828856.4501124514</v>
+        <v>-828856.4501124509</v>
       </c>
       <c r="C6" t="n">
-        <v>285895.3334634689</v>
+        <v>285895.3334634687</v>
       </c>
       <c r="D6" t="n">
-        <v>285895.3334634683</v>
+        <v>285895.3334634685</v>
       </c>
       <c r="E6" t="n">
-        <v>-112258.6590689305</v>
+        <v>-112293.3969943672</v>
       </c>
       <c r="F6" t="n">
-        <v>395226.7825556141</v>
+        <v>395192.0446301789</v>
       </c>
       <c r="G6" t="n">
-        <v>395226.7825556145</v>
+        <v>395192.0446301791</v>
       </c>
       <c r="H6" t="n">
-        <v>395226.7825556142</v>
+        <v>395192.0446301788</v>
       </c>
       <c r="I6" t="n">
-        <v>395226.7825556145</v>
+        <v>395192.0446301787</v>
       </c>
       <c r="J6" t="n">
-        <v>227621.604745632</v>
+        <v>227586.8668201962</v>
       </c>
       <c r="K6" t="n">
-        <v>395226.7825556147</v>
+        <v>395192.0446301788</v>
       </c>
       <c r="L6" t="n">
-        <v>395226.7825556146</v>
+        <v>395192.044630179</v>
       </c>
       <c r="M6" t="n">
-        <v>262619.4888266881</v>
+        <v>262584.750901252</v>
       </c>
       <c r="N6" t="n">
-        <v>395226.7825556148</v>
+        <v>395192.0446301788</v>
       </c>
       <c r="O6" t="n">
-        <v>395226.7825556147</v>
+        <v>395192.0446301789</v>
       </c>
       <c r="P6" t="n">
-        <v>395226.7825556146</v>
+        <v>395192.0446301789</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
@@ -26744,7 +26744,7 @@
         <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26793,16 +26793,16 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099647</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26811,16 +26811,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,16 +26966,16 @@
         <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241337</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996086</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996086</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996086</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>395.0038034663463</v>
+        <v>59.50169305910151</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27549,7 +27549,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27588,13 +27588,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>92.6737308198407</v>
+        <v>125.0028992002809</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>80.29344307186915</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>12.34021531474065</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>27.30725860760309</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.3613353340884</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27853,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>238.7412292352611</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>265.249704070604</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27913,7 +27913,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28020,7 +28020,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>271.371428375283</v>
       </c>
       <c r="V10" t="n">
-        <v>55.73584717546831</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29457,7 +29457,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29733,7 +29733,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30517,7 +30517,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348431</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.754615566328</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162557</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.646344017567</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159421</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460023</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236504</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669219</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078743</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31844,34 +31844,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>399.9031616963271</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862117</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071781</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.080820443724</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>328.9038320421837</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742436</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275953</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189902</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121569</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869271</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.405663379626</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355176</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588151</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392043</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106786</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920055</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515926</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670477</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532764</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338212</v>
+        <v>339.3493584601583</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338212</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32385,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,7 +32549,7 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422586</v>
@@ -32564,7 +32564,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319848</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32786,13 +32786,13 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
@@ -32801,13 +32801,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33023,10 +33023,10 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473073</v>
@@ -33038,10 +33038,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33260,31 +33260,31 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,34 +33488,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,31 +33725,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817572</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34211,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,34 +34436,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>373.0365088578699</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>600.455114847638</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L6" t="n">
-        <v>538.1269048795938</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820404</v>
@@ -35033,10 +35033,10 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317142</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396417</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367767</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193511</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243155</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924724</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902402</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>261.3487819164529</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641933</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238448</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992795</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>188.9220579561622</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295327</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899072</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060452</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394707</v>
+        <v>200.7949786802841</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394703</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36212,7 +36212,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875403</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36361,7 +36361,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M23" t="n">
         <v>735.300110790295</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394599</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,13 +36449,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.3288951674331</v>
@@ -36686,10 +36686,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36753,7 +36753,7 @@
         <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096363</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
         <v>394.3420143191315</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,22 +37382,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,28 +38090,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
